--- a/data/trans_orig/P6716-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{652C4CF7-F02A-4DEC-9CE9-34C3F0BD9336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF1E141-F44B-4868-9D2C-A1144F1A4888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{758D4767-A6F2-43E6-975C-F305D2387E04}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{080AC953-CAA5-4ABE-83BB-341E2BD7E3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="555">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -78,7 +78,7 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>8,78%</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -87,1624 +87,1621 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,46%</t>
+    <t>9,36%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>24,52%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A950DCD-A5C7-43A0-810F-9E269900E21E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C08E91-B4E0-43E1-8D4E-F50EF51CDC3C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2602,10 +2599,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -2614,13 +2611,13 @@
         <v>16551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -2629,13 +2626,13 @@
         <v>36610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2647,13 @@
         <v>69435</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -2665,13 +2662,13 @@
         <v>50553</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
@@ -2680,13 +2677,13 @@
         <v>119988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2698,13 @@
         <v>100655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -2716,13 +2713,13 @@
         <v>73615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>170</v>
@@ -2731,13 +2728,13 @@
         <v>174270</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2749,13 @@
         <v>180242</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -2767,13 +2764,13 @@
         <v>124969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -2782,13 +2779,13 @@
         <v>305210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,7 +2841,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2856,13 +2853,13 @@
         <v>12414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2871,13 +2868,13 @@
         <v>7748</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2886,13 +2883,13 @@
         <v>20162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2904,13 @@
         <v>21053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2922,13 +2919,13 @@
         <v>13464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -2937,13 +2934,13 @@
         <v>34517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2955,13 @@
         <v>81093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -2973,13 +2970,13 @@
         <v>74270</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>150</v>
@@ -2988,13 +2985,13 @@
         <v>155363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3006,13 @@
         <v>96163</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3024,13 +3021,13 @@
         <v>56823</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -3039,13 +3036,13 @@
         <v>152986</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3057,13 @@
         <v>214476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -3075,13 +3072,13 @@
         <v>133513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>332</v>
@@ -3090,13 +3087,13 @@
         <v>347989</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3149,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3164,13 +3161,13 @@
         <v>8253</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3179,13 +3176,13 @@
         <v>6301</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3194,7 +3191,7 @@
         <v>14554</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>159</v>
@@ -3266,13 +3263,13 @@
         <v>56808</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -3281,7 +3278,7 @@
         <v>48623</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>173</v>
@@ -3302,7 +3299,7 @@
         <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3314,13 @@
         <v>98225</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -3332,13 +3329,13 @@
         <v>49918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -3347,13 +3344,13 @@
         <v>148143</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3365,13 @@
         <v>196893</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -3383,13 +3380,13 @@
         <v>112951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>271</v>
@@ -3398,13 +3395,13 @@
         <v>309845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,7 +3457,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3472,13 +3469,13 @@
         <v>2580</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3487,13 +3484,13 @@
         <v>2068</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3502,13 +3499,13 @@
         <v>4648</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3520,13 @@
         <v>7441</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3538,13 +3535,13 @@
         <v>5104</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -3553,13 +3550,13 @@
         <v>12545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3571,13 @@
         <v>29673</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3589,13 +3586,13 @@
         <v>10657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -3604,13 +3601,13 @@
         <v>40330</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3622,13 @@
         <v>30167</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -3640,13 +3637,13 @@
         <v>19808</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -3655,13 +3652,13 @@
         <v>49975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3673,13 @@
         <v>87490</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>29</v>
@@ -3691,13 +3688,13 @@
         <v>30976</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -3706,13 +3703,13 @@
         <v>118467</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,7 +3765,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3786,7 +3783,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3801,7 +3798,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3816,7 +3813,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3834,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3846,13 +3843,13 @@
         <v>891</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3861,13 +3858,13 @@
         <v>891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3879,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3897,13 +3894,13 @@
         <v>981</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3912,13 +3909,13 @@
         <v>1980</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3936,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3954,7 +3951,7 @@
         <v>24</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3969,7 +3966,7 @@
         <v>24</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3981,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3999,13 +3996,13 @@
         <v>967</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4014,13 +4011,13 @@
         <v>2983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4085,13 @@
         <v>39203</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
@@ -4103,13 +4100,13 @@
         <v>28497</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>65</v>
@@ -4118,13 +4115,13 @@
         <v>67701</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4136,13 @@
         <v>59285</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H41" s="7">
         <v>38</v>
@@ -4154,13 +4151,13 @@
         <v>43557</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M41" s="7">
         <v>93</v>
@@ -4169,13 +4166,13 @@
         <v>102841</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4187,13 @@
         <v>256855</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H42" s="7">
         <v>187</v>
@@ -4205,13 +4202,13 @@
         <v>204294</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>431</v>
@@ -4220,13 +4217,13 @@
         <v>461149</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4238,13 @@
         <v>351462</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>214</v>
@@ -4256,13 +4253,13 @@
         <v>223944</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M43" s="7">
         <v>547</v>
@@ -4271,13 +4268,13 @@
         <v>575406</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4289,13 @@
         <v>712947</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H44" s="7">
         <v>407</v>
@@ -4307,13 +4304,13 @@
         <v>446062</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M44" s="7">
         <v>1071</v>
@@ -4322,13 +4319,13 @@
         <v>1159009</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,7 +4381,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB303BB-B53F-44A9-95E6-CBF3DFEBD082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C354D329-BCF1-4663-8CC7-D99995AD6413}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,7 +4420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +4527,13 @@
         <v>1088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4545,13 +4542,13 @@
         <v>7551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4560,13 +4557,13 @@
         <v>8639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4578,13 @@
         <v>6231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4596,13 +4593,13 @@
         <v>2785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4611,13 +4608,13 @@
         <v>9016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4629,13 @@
         <v>23289</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4647,13 +4644,13 @@
         <v>20939</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4662,13 +4659,13 @@
         <v>44228</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4680,13 @@
         <v>23797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4698,10 +4695,10 @@
         <v>31281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>326</v>
@@ -4767,10 +4764,10 @@
         <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4835,13 @@
         <v>17546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4853,13 +4850,13 @@
         <v>6694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4871,10 +4868,10 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4886,13 @@
         <v>22212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4904,13 +4901,13 @@
         <v>16063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4919,13 +4916,13 @@
         <v>38276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4937,13 @@
         <v>79598</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -4955,13 +4952,13 @@
         <v>67808</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>145</v>
@@ -4970,13 +4967,13 @@
         <v>147406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +4988,13 @@
         <v>93967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -5006,13 +5003,13 @@
         <v>78550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -5021,13 +5018,13 @@
         <v>172518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5039,13 @@
         <v>130861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -5057,13 +5054,13 @@
         <v>104601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>235</v>
@@ -5072,13 +5069,13 @@
         <v>235462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,7 +5131,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5146,13 +5143,13 @@
         <v>11586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5161,13 +5158,13 @@
         <v>9241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5176,13 +5173,13 @@
         <v>20827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5194,13 @@
         <v>21579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -5212,13 +5209,13 @@
         <v>19239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5227,7 +5224,7 @@
         <v>40818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>390</v>
@@ -5269,7 +5266,7 @@
         <v>396</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>397</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -5278,13 +5275,13 @@
         <v>176225</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5296,13 @@
         <v>121705</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5314,13 +5311,13 @@
         <v>78148</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -5329,13 +5326,13 @@
         <v>199853</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5347,13 @@
         <v>198507</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -5365,13 +5362,13 @@
         <v>140771</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>330</v>
@@ -5383,10 +5380,10 @@
         <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,7 +5439,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5454,10 +5451,10 @@
         <v>13661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>26</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>418</v>
@@ -5508,10 +5505,10 @@
         <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -5520,10 +5517,10 @@
         <v>15357</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>429</v>
@@ -5535,10 +5532,10 @@
         <v>34866</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>431</v>
@@ -5556,13 +5553,13 @@
         <v>69040</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -5571,13 +5568,13 @@
         <v>58109</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>113</v>
@@ -5586,13 +5583,13 @@
         <v>127148</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5619,13 @@
         <v>60740</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5637,13 +5634,13 @@
         <v>180236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5655,13 @@
         <v>146023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>99</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -5673,13 +5670,13 @@
         <v>94099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>217</v>
@@ -5688,13 +5685,13 @@
         <v>240122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,7 +5747,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5762,13 +5759,13 @@
         <v>5474</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5780,10 +5777,10 @@
         <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>252</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -5792,13 +5789,13 @@
         <v>14012</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5810,13 @@
         <v>13164</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5828,13 +5825,13 @@
         <v>12653</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -5843,13 +5840,13 @@
         <v>25817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5861,13 @@
         <v>38235</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -5879,13 +5876,13 @@
         <v>27762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5894,13 +5891,13 @@
         <v>65998</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5912,13 @@
         <v>33466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -5930,13 +5927,13 @@
         <v>22123</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>484</v>
+        <v>92</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -5945,13 +5942,13 @@
         <v>55589</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5963,13 @@
         <v>75387</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -5981,13 +5978,13 @@
         <v>34802</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M32" s="7">
         <v>95</v>
@@ -5996,13 +5993,13 @@
         <v>110190</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6055,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6076,7 +6073,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6085,13 +6082,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6100,7 +6097,7 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>347</v>
+        <v>498</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>15</v>
@@ -6127,7 +6124,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6280,7 +6277,7 @@
         <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6292,10 +6289,10 @@
         <v>514</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -6304,10 +6301,10 @@
         <v>6898</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>517</v>
@@ -6381,10 +6378,10 @@
         <v>518</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>519</v>
+        <v>344</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>520</v>
+        <v>385</v>
       </c>
       <c r="H40" s="7">
         <v>45</v>
@@ -6393,13 +6390,13 @@
         <v>47858</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>522</v>
+        <v>74</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M40" s="7">
         <v>87</v>
@@ -6408,13 +6405,13 @@
         <v>97213</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>526</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6426,13 @@
         <v>82695</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H41" s="7">
         <v>64</v>
@@ -6444,13 +6441,13 @@
         <v>66098</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M41" s="7">
         <v>139</v>
@@ -6459,13 +6456,13 @@
         <v>148792</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>457</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6477,13 @@
         <v>317423</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H42" s="7">
         <v>238</v>
@@ -6495,13 +6492,13 @@
         <v>244633</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>322</v>
+        <v>534</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M42" s="7">
         <v>526</v>
@@ -6510,13 +6507,13 @@
         <v>562056</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>359</v>
+        <v>536</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6528,13 @@
         <v>393457</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H43" s="7">
         <v>271</v>
@@ -6546,13 +6543,13 @@
         <v>272025</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M43" s="7">
         <v>647</v>
@@ -6561,13 +6558,13 @@
         <v>665481</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6579,13 @@
         <v>579393</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H44" s="7">
         <v>395</v>
@@ -6597,13 +6594,13 @@
         <v>406559</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="M44" s="7">
         <v>937</v>
@@ -6612,13 +6609,13 @@
         <v>985952</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,7 +6671,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF1E141-F44B-4868-9D2C-A1144F1A4888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBD540B3-F93B-4046-8CB5-6EDF512079DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{080AC953-CAA5-4ABE-83BB-341E2BD7E3DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44FFCE55-1C56-466F-A936-E1C5A49AEDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="551">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>3,23%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -87,16 +87,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,36%</t>
+    <t>7,87%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,10 +105,10 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>0%</t>
@@ -123,7 +123,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,17%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -132,28 +132,28 @@
     <t>22,75%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -162,1516 +162,1510 @@
     <t>31,69%</t>
   </si>
   <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>5,15%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>24,52%</t>
+    <t>24,56%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>25,05%</t>
+    <t>25,07%</t>
   </si>
   <si>
     <t>28,88%</t>
@@ -1680,28 +1674,22 @@
     <t>40,74%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C08E91-B4E0-43E1-8D4E-F50EF51CDC3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF1B306-1ABA-4106-927C-A78AE04A000B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3191,13 +3179,13 @@
         <v>14554</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3200,13 @@
         <v>7484</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3227,13 +3215,13 @@
         <v>7548</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -3242,13 +3230,13 @@
         <v>15032</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3251,13 @@
         <v>56808</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -3278,13 +3266,13 @@
         <v>48623</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>91</v>
@@ -3293,13 +3281,13 @@
         <v>105432</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3302,13 @@
         <v>98225</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -3329,13 +3317,13 @@
         <v>49918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -3344,13 +3332,13 @@
         <v>148143</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3353,13 @@
         <v>196893</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -3380,13 +3368,13 @@
         <v>112951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>271</v>
@@ -3395,13 +3383,13 @@
         <v>309845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,7 +3445,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3469,13 +3457,13 @@
         <v>2580</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3535,13 +3523,13 @@
         <v>5104</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -3553,10 +3541,10 @@
         <v>76</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3559,13 @@
         <v>29673</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3586,13 +3574,13 @@
         <v>10657</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -3601,13 +3589,13 @@
         <v>40330</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3610,13 @@
         <v>30167</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -3637,13 +3625,13 @@
         <v>19808</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -3652,13 +3640,13 @@
         <v>49975</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3661,13 @@
         <v>87490</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>29</v>
@@ -3688,13 +3676,13 @@
         <v>30976</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -3703,13 +3691,13 @@
         <v>118467</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3753,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3783,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3798,7 +3786,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3834,7 +3822,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3843,13 +3831,13 @@
         <v>891</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3858,13 +3846,13 @@
         <v>891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3894,13 +3882,13 @@
         <v>981</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3909,13 +3897,13 @@
         <v>1980</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3924,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3951,7 +3939,7 @@
         <v>24</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3981,13 +3969,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3996,13 +3984,13 @@
         <v>967</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4011,13 +3999,13 @@
         <v>2983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4073,13 @@
         <v>39203</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
@@ -4103,10 +4091,10 @@
         <v>199</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
         <v>65</v>
@@ -4115,13 +4103,13 @@
         <v>67701</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4124,13 @@
         <v>59285</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>38</v>
@@ -4151,13 +4139,13 @@
         <v>43557</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>93</v>
@@ -4166,13 +4154,13 @@
         <v>102841</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4175,13 @@
         <v>256855</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H42" s="7">
         <v>187</v>
@@ -4202,13 +4190,13 @@
         <v>204294</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M42" s="7">
         <v>431</v>
@@ -4217,13 +4205,13 @@
         <v>461149</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4226,13 @@
         <v>351462</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H43" s="7">
         <v>214</v>
@@ -4253,13 +4241,13 @@
         <v>223944</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M43" s="7">
         <v>547</v>
@@ -4268,13 +4256,13 @@
         <v>575406</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4277,13 @@
         <v>712947</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H44" s="7">
         <v>407</v>
@@ -4304,13 +4292,13 @@
         <v>446062</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M44" s="7">
         <v>1071</v>
@@ -4319,13 +4307,13 @@
         <v>1159009</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4369,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4403,7 +4391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C354D329-BCF1-4663-8CC7-D99995AD6413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087B93E8-F161-42B2-A986-2827AFCB83FC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4420,7 +4408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4527,13 +4515,13 @@
         <v>1088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4542,13 +4530,13 @@
         <v>7551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4557,13 +4545,13 @@
         <v>8639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4566,13 @@
         <v>6231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4593,13 +4581,13 @@
         <v>2785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4608,13 +4596,13 @@
         <v>9016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4617,13 @@
         <v>23289</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4644,13 +4632,13 @@
         <v>20939</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4659,13 +4647,13 @@
         <v>44228</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4668,13 @@
         <v>23797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4695,13 +4683,13 @@
         <v>31281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4710,13 +4698,13 @@
         <v>55078</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4719,13 @@
         <v>24704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -4746,13 +4734,13 @@
         <v>29299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -4761,13 +4749,13 @@
         <v>54003</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4823,13 @@
         <v>17546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4850,13 +4838,13 @@
         <v>6694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4868,10 +4856,10 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4874,13 @@
         <v>22212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4901,13 +4889,13 @@
         <v>16063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4916,13 +4904,13 @@
         <v>38276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4925,13 @@
         <v>79598</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -4952,13 +4940,13 @@
         <v>67808</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M12" s="7">
         <v>145</v>
@@ -4967,13 +4955,13 @@
         <v>147406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4976,13 @@
         <v>93967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -5003,13 +4991,13 @@
         <v>78550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -5018,13 +5006,13 @@
         <v>172518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5027,13 @@
         <v>130861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -5054,13 +5042,13 @@
         <v>104601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>235</v>
@@ -5069,13 +5057,13 @@
         <v>235462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5131,13 @@
         <v>11586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5158,13 +5146,13 @@
         <v>9241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5173,13 +5161,13 @@
         <v>20827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5182,13 @@
         <v>21579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -5209,13 +5197,13 @@
         <v>19239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5224,13 +5212,13 @@
         <v>40818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5233,13 @@
         <v>106210</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -5260,13 +5248,13 @@
         <v>70015</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -5275,13 +5263,13 @@
         <v>176225</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5284,13 @@
         <v>121705</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5311,13 +5299,13 @@
         <v>78148</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -5326,13 +5314,13 @@
         <v>199853</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5335,13 @@
         <v>198507</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -5362,13 +5350,13 @@
         <v>140771</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>330</v>
@@ -5380,10 +5368,10 @@
         <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5439,13 @@
         <v>13661</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5466,13 +5454,13 @@
         <v>14813</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5481,13 +5469,13 @@
         <v>28474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5490,13 @@
         <v>19508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -5517,13 +5505,13 @@
         <v>15357</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -5532,13 +5520,13 @@
         <v>34866</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5541,13 @@
         <v>69040</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -5568,13 +5556,13 @@
         <v>58109</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M24" s="7">
         <v>113</v>
@@ -5583,13 +5571,13 @@
         <v>127148</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5592,13 @@
         <v>119496</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>356</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5619,13 +5607,13 @@
         <v>60740</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5634,13 +5622,13 @@
         <v>180236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5643,13 @@
         <v>146023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -5670,13 +5658,13 @@
         <v>94099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>217</v>
@@ -5685,13 +5673,13 @@
         <v>240122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,7 +5735,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5759,13 +5747,13 @@
         <v>5474</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>261</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5774,13 +5762,13 @@
         <v>8539</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>420</v>
+        <v>74</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>252</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -5789,13 +5777,13 @@
         <v>14012</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>460</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5798,13 @@
         <v>13164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5825,13 +5813,13 @@
         <v>12653</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -5840,13 +5828,13 @@
         <v>25817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>75</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5849,13 @@
         <v>38235</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -5876,13 +5864,13 @@
         <v>27762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5891,13 +5879,13 @@
         <v>65998</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>478</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5900,13 @@
         <v>33466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -5927,13 +5915,13 @@
         <v>22123</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>92</v>
+        <v>477</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -5942,13 +5930,13 @@
         <v>55589</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5951,13 @@
         <v>75387</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>487</v>
+        <v>234</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -5978,13 +5966,13 @@
         <v>34802</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M32" s="7">
         <v>95</v>
@@ -5993,13 +5981,13 @@
         <v>110190</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6043,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6082,13 +6070,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6097,13 +6085,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,7 +6127,7 @@
         <v>24</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6154,7 +6142,7 @@
         <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6157,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6190,7 +6178,7 @@
         <v>24</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6199,13 +6187,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6208,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6235,13 +6223,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6250,13 +6238,13 @@
         <v>2207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6259,13 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6286,13 +6274,13 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -6301,13 +6289,13 @@
         <v>6898</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6363,13 @@
         <v>49355</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>385</v>
+        <v>514</v>
       </c>
       <c r="H40" s="7">
         <v>45</v>
@@ -6390,13 +6378,13 @@
         <v>47858</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="M40" s="7">
         <v>87</v>
@@ -6405,13 +6393,13 @@
         <v>97213</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>122</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6414,13 @@
         <v>82695</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H41" s="7">
         <v>64</v>
@@ -6441,13 +6429,13 @@
         <v>66098</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M41" s="7">
         <v>139</v>
@@ -6456,13 +6444,13 @@
         <v>148792</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>166</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6465,13 @@
         <v>317423</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H42" s="7">
         <v>238</v>
@@ -6492,13 +6480,13 @@
         <v>244633</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M42" s="7">
         <v>526</v>
@@ -6507,13 +6495,13 @@
         <v>562056</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6516,13 @@
         <v>393457</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H43" s="7">
         <v>271</v>
@@ -6546,10 +6534,10 @@
         <v>88</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M43" s="7">
         <v>647</v>
@@ -6558,13 +6546,13 @@
         <v>665481</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6567,13 @@
         <v>579393</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>547</v>
+        <v>371</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>548</v>
+        <v>407</v>
       </c>
       <c r="H44" s="7">
         <v>395</v>
@@ -6594,13 +6582,13 @@
         <v>406559</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M44" s="7">
         <v>937</v>
@@ -6609,13 +6597,13 @@
         <v>985952</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,7 +6659,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBD540B3-F93B-4046-8CB5-6EDF512079DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C978D8-B0B2-433C-9935-4697D7F73125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44FFCE55-1C56-466F-A936-E1C5A49AEDBD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7FB021B-6452-4D35-8B4B-CE37ADA984A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="556">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>3,23%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -87,16 +87,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,87%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,10 +105,10 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,10 +120,10 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -132,28 +132,28 @@
     <t>22,75%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -162,1534 +162,1549 @@
     <t>31,69%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>29,03%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF1B306-1ABA-4106-927C-A78AE04A000B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10C8A52-4D31-4B3B-8906-221159FDB89B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2587,10 +2602,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -2599,13 +2614,13 @@
         <v>16551</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -2614,13 +2629,13 @@
         <v>36610</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2650,13 @@
         <v>69435</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -2650,13 +2665,13 @@
         <v>50553</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
@@ -2665,13 +2680,13 @@
         <v>119988</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2701,13 @@
         <v>100655</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -2701,13 +2716,13 @@
         <v>73615</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>170</v>
@@ -2716,13 +2731,13 @@
         <v>174270</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2752,13 @@
         <v>180242</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -2752,13 +2767,13 @@
         <v>124969</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -2767,13 +2782,13 @@
         <v>305210</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2844,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2841,13 +2856,13 @@
         <v>12414</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2856,13 +2871,13 @@
         <v>7748</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2871,13 +2886,13 @@
         <v>20162</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,13 +2907,13 @@
         <v>21053</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2907,13 +2922,13 @@
         <v>13464</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -2922,13 +2937,13 @@
         <v>34517</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2958,13 @@
         <v>81093</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -2958,13 +2973,13 @@
         <v>74270</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>150</v>
@@ -2973,13 +2988,13 @@
         <v>155363</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3009,13 @@
         <v>96163</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -3009,13 +3024,13 @@
         <v>56823</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -3024,13 +3039,13 @@
         <v>152986</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3060,13 @@
         <v>214476</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -3060,13 +3075,13 @@
         <v>133513</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>332</v>
@@ -3075,13 +3090,13 @@
         <v>347989</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,7 +3152,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3149,13 +3164,13 @@
         <v>8253</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3164,13 +3179,13 @@
         <v>6301</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3179,13 +3194,13 @@
         <v>14554</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3215,13 @@
         <v>7484</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3215,13 +3230,13 @@
         <v>7548</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -3230,13 +3245,13 @@
         <v>15032</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3266,13 @@
         <v>56808</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -3266,13 +3281,13 @@
         <v>48623</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>91</v>
@@ -3281,13 +3296,13 @@
         <v>105432</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3317,13 @@
         <v>98225</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -3317,13 +3332,13 @@
         <v>49918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -3332,13 +3347,13 @@
         <v>148143</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3368,13 @@
         <v>196893</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -3368,13 +3383,13 @@
         <v>112951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>271</v>
@@ -3383,13 +3398,13 @@
         <v>309845</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3460,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3457,13 +3472,13 @@
         <v>2580</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3472,13 +3487,13 @@
         <v>2068</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3487,13 +3502,13 @@
         <v>4648</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3523,13 @@
         <v>7441</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3523,7 +3538,7 @@
         <v>5104</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>207</v>
@@ -3538,13 +3553,13 @@
         <v>12545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3574,13 @@
         <v>29673</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3574,7 +3589,7 @@
         <v>10657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>214</v>
@@ -3679,10 +3694,10 @@
         <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -3691,13 +3706,13 @@
         <v>118467</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3768,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3771,7 +3786,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3786,7 +3801,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3801,7 +3816,7 @@
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3837,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3831,13 +3846,13 @@
         <v>891</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3846,13 +3861,13 @@
         <v>891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3882,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3882,13 +3897,13 @@
         <v>981</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3897,13 +3912,13 @@
         <v>1980</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3939,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3939,7 +3954,7 @@
         <v>24</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3954,7 +3969,7 @@
         <v>24</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3984,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3984,13 +3999,13 @@
         <v>967</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3999,13 +4014,13 @@
         <v>2983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4088,13 @@
         <v>39203</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
@@ -4088,13 +4103,13 @@
         <v>28497</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
         <v>65</v>
@@ -4103,13 +4118,13 @@
         <v>67701</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4139,13 @@
         <v>59285</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H41" s="7">
         <v>38</v>
@@ -4139,13 +4154,13 @@
         <v>43557</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>93</v>
@@ -4154,13 +4169,13 @@
         <v>102841</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4190,13 @@
         <v>256855</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H42" s="7">
         <v>187</v>
@@ -4190,13 +4205,13 @@
         <v>204294</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M42" s="7">
         <v>431</v>
@@ -4205,13 +4220,13 @@
         <v>461149</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4241,13 @@
         <v>351462</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H43" s="7">
         <v>214</v>
@@ -4241,13 +4256,13 @@
         <v>223944</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M43" s="7">
         <v>547</v>
@@ -4256,13 +4271,13 @@
         <v>575406</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4292,13 @@
         <v>712947</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H44" s="7">
         <v>407</v>
@@ -4292,13 +4307,13 @@
         <v>446062</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M44" s="7">
         <v>1071</v>
@@ -4307,13 +4322,13 @@
         <v>1159009</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,7 +4384,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4391,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087B93E8-F161-42B2-A986-2827AFCB83FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6689B9-4852-4404-A5F7-E4A6FF229172}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4408,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4515,13 +4530,13 @@
         <v>1088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4530,13 +4545,13 @@
         <v>7551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4545,13 +4560,13 @@
         <v>8639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4581,13 @@
         <v>6231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4581,13 +4596,13 @@
         <v>2785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4596,13 +4611,13 @@
         <v>9016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4632,13 @@
         <v>23289</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4632,13 +4647,13 @@
         <v>20939</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4647,13 +4662,13 @@
         <v>44228</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4683,13 @@
         <v>23797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4683,13 +4698,13 @@
         <v>31281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4698,13 +4713,13 @@
         <v>55078</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4734,13 @@
         <v>24704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -4734,13 +4749,13 @@
         <v>29299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -4749,13 +4764,13 @@
         <v>54003</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4838,13 @@
         <v>17546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4838,13 +4853,13 @@
         <v>6694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4856,10 +4871,10 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4889,13 @@
         <v>22212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4889,13 +4904,13 @@
         <v>16063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4904,13 +4919,13 @@
         <v>38276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4940,13 @@
         <v>79598</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -4940,13 +4955,13 @@
         <v>67808</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>145</v>
@@ -4955,13 +4970,13 @@
         <v>147406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4991,13 @@
         <v>93967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -4991,13 +5006,13 @@
         <v>78550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -5006,13 +5021,13 @@
         <v>172518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5042,13 @@
         <v>130861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -5042,13 +5057,13 @@
         <v>104601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>235</v>
@@ -5057,13 +5072,13 @@
         <v>235462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5134,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5131,13 +5146,13 @@
         <v>11586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5146,13 +5161,13 @@
         <v>9241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5161,13 +5176,13 @@
         <v>20827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5197,13 @@
         <v>21579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -5197,13 +5212,13 @@
         <v>19239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5212,13 +5227,13 @@
         <v>40818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5248,13 @@
         <v>106210</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -5248,13 +5263,13 @@
         <v>70015</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -5263,13 +5278,13 @@
         <v>176225</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5299,13 @@
         <v>121705</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5299,13 +5314,13 @@
         <v>78148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -5314,13 +5329,13 @@
         <v>199853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5350,13 @@
         <v>198507</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -5350,13 +5365,13 @@
         <v>140771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>330</v>
@@ -5368,10 +5383,10 @@
         <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,7 +5442,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5439,13 +5454,13 @@
         <v>13661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5454,13 +5469,13 @@
         <v>14813</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5469,13 +5484,13 @@
         <v>28474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5505,13 @@
         <v>19508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -5505,13 +5520,13 @@
         <v>15357</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -5520,13 +5535,13 @@
         <v>34866</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>342</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>170</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5556,13 @@
         <v>69040</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -5556,13 +5571,13 @@
         <v>58109</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>113</v>
@@ -5571,13 +5586,13 @@
         <v>127148</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>436</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5607,13 @@
         <v>119496</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5607,13 +5622,13 @@
         <v>60740</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5622,13 +5637,13 @@
         <v>180236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5658,13 @@
         <v>146023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -5658,13 +5673,13 @@
         <v>94099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>217</v>
@@ -5673,13 +5688,13 @@
         <v>240122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,7 +5750,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5747,13 +5762,13 @@
         <v>5474</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>261</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5762,13 +5777,13 @@
         <v>8539</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -5777,13 +5792,13 @@
         <v>14012</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5813,13 @@
         <v>13164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5813,13 +5828,13 @@
         <v>12653</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -5828,13 +5843,13 @@
         <v>25817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5864,13 @@
         <v>38235</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -5864,13 +5879,13 @@
         <v>27762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5879,13 +5894,13 @@
         <v>65998</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>96</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5915,13 @@
         <v>33466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -5915,13 +5930,13 @@
         <v>22123</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -5930,13 +5945,13 @@
         <v>55589</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>404</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5966,13 @@
         <v>75387</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>234</v>
+        <v>489</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -5966,13 +5981,13 @@
         <v>34802</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M32" s="7">
         <v>95</v>
@@ -5981,13 +5996,13 @@
         <v>110190</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>489</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,7 +6058,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6061,7 +6076,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6070,13 +6085,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6085,13 +6100,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>492</v>
+        <v>347</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6127,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6127,7 +6142,7 @@
         <v>24</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6142,7 +6157,7 @@
         <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6172,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6178,7 +6193,7 @@
         <v>24</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6187,13 +6202,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6223,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6223,13 +6238,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6238,13 +6253,13 @@
         <v>2207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6274,13 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6274,13 +6289,13 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -6289,13 +6304,13 @@
         <v>6898</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6378,13 @@
         <v>49355</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H40" s="7">
         <v>45</v>
@@ -6378,13 +6393,13 @@
         <v>47858</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="M40" s="7">
         <v>87</v>
@@ -6393,13 +6408,13 @@
         <v>97213</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6429,13 @@
         <v>82695</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>376</v>
+        <v>528</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="H41" s="7">
         <v>64</v>
@@ -6429,13 +6444,13 @@
         <v>66098</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="M41" s="7">
         <v>139</v>
@@ -6444,13 +6459,13 @@
         <v>148792</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>527</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6480,13 @@
         <v>317423</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="H42" s="7">
         <v>238</v>
@@ -6480,13 +6495,13 @@
         <v>244633</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>532</v>
+        <v>322</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M42" s="7">
         <v>526</v>
@@ -6495,13 +6510,13 @@
         <v>562056</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>534</v>
+        <v>359</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6531,13 @@
         <v>393457</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>538</v>
+        <v>321</v>
       </c>
       <c r="H43" s="7">
         <v>271</v>
@@ -6531,13 +6546,13 @@
         <v>272025</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M43" s="7">
         <v>647</v>
@@ -6546,13 +6561,13 @@
         <v>665481</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6582,13 @@
         <v>579393</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>371</v>
+        <v>548</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>407</v>
+        <v>549</v>
       </c>
       <c r="H44" s="7">
         <v>395</v>
@@ -6582,13 +6597,13 @@
         <v>406559</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="M44" s="7">
         <v>937</v>
@@ -6597,13 +6612,13 @@
         <v>985952</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,7 +6674,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C978D8-B0B2-433C-9935-4697D7F73125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9572B838-21AD-4852-B2D7-73618DED68DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7FB021B-6452-4D35-8B4B-CE37ADA984A5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{108391A0-7CC0-42B1-98AC-ECA18B07AD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="561">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -219,7 +219,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,46%</t>
@@ -354,7 +354,7 @@
     <t>50,17%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,92%</t>
@@ -492,7 +492,7 @@
     <t>53,06%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,24%</t>
@@ -624,7 +624,7 @@
     <t>56,04%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,64%</t>
@@ -750,7 +750,7 @@
     <t>59,23%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -795,6 +795,12 @@
     <t>84,83%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>2,76%</t>
   </si>
   <si>
@@ -1530,37 +1536,40 @@
     <t>34,15%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>19,65%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1569,16 +1578,16 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>57,56%</t>
@@ -1587,10 +1596,16 @@
     <t>16,54%</t>
   </si>
   <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>3,47%</t>
@@ -2116,8 +2131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10C8A52-4D31-4B3B-8906-221159FDB89B}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7F0A23-464F-4C33-AE3C-6DB81DBE80FC}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3293,7 +3308,7 @@
         <v>91</v>
       </c>
       <c r="N24" s="7">
-        <v>105432</v>
+        <v>105431</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>175</v>
@@ -3344,7 +3359,7 @@
         <v>131</v>
       </c>
       <c r="N25" s="7">
-        <v>148143</v>
+        <v>148142</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>183</v>
@@ -3395,7 +3410,7 @@
         <v>271</v>
       </c>
       <c r="N26" s="7">
-        <v>309845</v>
+        <v>309844</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>192</v>
@@ -3446,7 +3461,7 @@
         <v>519</v>
       </c>
       <c r="N27" s="7">
-        <v>593004</v>
+        <v>593003</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -4076,55 +4091,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>37</v>
-      </c>
-      <c r="D40" s="7">
-        <v>39203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H40" s="7">
-        <v>28</v>
-      </c>
-      <c r="I40" s="7">
-        <v>28497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
-        <v>65</v>
-      </c>
-      <c r="N40" s="7">
-        <v>67701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,49 +4142,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>55</v>
-      </c>
-      <c r="D41" s="7">
-        <v>59285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H41" s="7">
-        <v>38</v>
-      </c>
-      <c r="I41" s="7">
-        <v>43557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
-        <v>93</v>
-      </c>
-      <c r="N41" s="7">
-        <v>102841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4187,43 @@
         <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>244</v>
-      </c>
-      <c r="D42" s="7">
-        <v>256855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H42" s="7">
-        <v>187</v>
-      </c>
-      <c r="I42" s="7">
-        <v>204294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="M42" s="7">
-        <v>431</v>
-      </c>
-      <c r="N42" s="7">
-        <v>461149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,49 +4232,43 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>333</v>
-      </c>
-      <c r="D43" s="7">
-        <v>351462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H43" s="7">
-        <v>214</v>
-      </c>
-      <c r="I43" s="7">
-        <v>223944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="M43" s="7">
-        <v>547</v>
-      </c>
-      <c r="N43" s="7">
-        <v>575406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,49 +4277,43 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>664</v>
-      </c>
-      <c r="D44" s="7">
-        <v>712947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="H44" s="7">
-        <v>407</v>
-      </c>
-      <c r="I44" s="7">
-        <v>446062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="M44" s="7">
-        <v>1071</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1159009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,63 +4322,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>37</v>
+      </c>
+      <c r="D46" s="7">
+        <v>39203</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" s="7">
+        <v>28</v>
+      </c>
+      <c r="I46" s="7">
+        <v>28497</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M46" s="7">
+        <v>65</v>
+      </c>
+      <c r="N46" s="7">
+        <v>67701</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>55</v>
+      </c>
+      <c r="D47" s="7">
+        <v>59285</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" s="7">
+        <v>38</v>
+      </c>
+      <c r="I47" s="7">
+        <v>43557</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M47" s="7">
+        <v>93</v>
+      </c>
+      <c r="N47" s="7">
+        <v>102841</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7">
+        <v>244</v>
+      </c>
+      <c r="D48" s="7">
+        <v>256855</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H48" s="7">
+        <v>187</v>
+      </c>
+      <c r="I48" s="7">
+        <v>204294</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M48" s="7">
+        <v>431</v>
+      </c>
+      <c r="N48" s="7">
+        <v>461149</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>333</v>
+      </c>
+      <c r="D49" s="7">
+        <v>351462</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="7">
+        <v>214</v>
+      </c>
+      <c r="I49" s="7">
+        <v>223944</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M49" s="7">
+        <v>547</v>
+      </c>
+      <c r="N49" s="7">
+        <v>575406</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>664</v>
+      </c>
+      <c r="D50" s="7">
+        <v>712947</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="7">
+        <v>407</v>
+      </c>
+      <c r="I50" s="7">
+        <v>446062</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1071</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1159009</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1333</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1419752</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>874</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>946354</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2207</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2366106</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>295</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4406,8 +4694,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6689B9-4852-4404-A5F7-E4A6FF229172}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2DCFA2-1E75-42EC-B602-9633B8C6E5D3}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4423,7 +4711,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +4818,13 @@
         <v>1088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4545,13 +4833,13 @@
         <v>7551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4563,10 +4851,10 @@
         <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4869,13 @@
         <v>6231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4596,13 +4884,13 @@
         <v>2785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4611,13 +4899,13 @@
         <v>9016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4920,13 @@
         <v>23289</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4647,13 +4935,13 @@
         <v>20939</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4662,13 +4950,13 @@
         <v>44228</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4971,13 @@
         <v>23797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4698,13 +4986,13 @@
         <v>31281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4713,13 +5001,13 @@
         <v>55078</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +5022,13 @@
         <v>24704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -4749,13 +5037,13 @@
         <v>29299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -4764,13 +5052,13 @@
         <v>54003</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +5126,13 @@
         <v>17546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4856,10 +5144,10 @@
         <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4874,7 +5162,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +5177,13 @@
         <v>22212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4904,13 +5192,13 @@
         <v>16063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4919,13 +5207,13 @@
         <v>38276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +5228,13 @@
         <v>79598</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -4955,13 +5243,13 @@
         <v>67808</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>145</v>
@@ -4970,13 +5258,13 @@
         <v>147406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +5279,13 @@
         <v>93967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -5006,13 +5294,13 @@
         <v>78550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -5021,13 +5309,13 @@
         <v>172518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5330,13 @@
         <v>130861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -5057,13 +5345,13 @@
         <v>104601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>235</v>
@@ -5072,13 +5360,13 @@
         <v>235462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5434,13 @@
         <v>11586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5161,13 +5449,13 @@
         <v>9241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5176,13 +5464,13 @@
         <v>20827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5485,13 @@
         <v>21579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -5212,13 +5500,13 @@
         <v>19239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -5227,13 +5515,13 @@
         <v>40818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5536,13 @@
         <v>106210</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -5263,13 +5551,13 @@
         <v>70015</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -5278,13 +5566,13 @@
         <v>176225</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5587,13 @@
         <v>121705</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5314,13 +5602,13 @@
         <v>78148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -5329,13 +5617,13 @@
         <v>199853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5638,13 @@
         <v>198507</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -5365,13 +5653,13 @@
         <v>140771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>330</v>
@@ -5383,10 +5671,10 @@
         <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,7 +5716,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -5454,13 +5742,13 @@
         <v>13661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5469,13 +5757,13 @@
         <v>14813</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -5484,13 +5772,13 @@
         <v>28474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5793,13 @@
         <v>19508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -5520,13 +5808,13 @@
         <v>15357</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -5535,13 +5823,13 @@
         <v>34866</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5844,13 @@
         <v>69040</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -5571,13 +5859,13 @@
         <v>58109</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M24" s="7">
         <v>113</v>
@@ -5586,13 +5874,13 @@
         <v>127148</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5895,13 @@
         <v>119496</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5625,10 +5913,10 @@
         <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5637,13 +5925,13 @@
         <v>180236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,10 +5946,10 @@
         <v>146023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>99</v>
@@ -5673,13 +5961,13 @@
         <v>94099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>217</v>
@@ -5688,13 +5976,13 @@
         <v>240122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +6050,13 @@
         <v>5474</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5777,13 +6065,13 @@
         <v>8539</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -5792,13 +6080,13 @@
         <v>14012</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +6101,13 @@
         <v>13164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5828,13 +6116,13 @@
         <v>12653</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -5843,13 +6131,13 @@
         <v>25817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +6152,13 @@
         <v>38235</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -5879,13 +6167,13 @@
         <v>27762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5894,13 +6182,13 @@
         <v>65998</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +6203,13 @@
         <v>33466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -5930,13 +6218,13 @@
         <v>22123</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -5945,10 +6233,10 @@
         <v>55589</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>221</v>
@@ -5966,13 +6254,13 @@
         <v>75387</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -5981,13 +6269,13 @@
         <v>34802</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M32" s="7">
         <v>95</v>
@@ -5996,13 +6284,13 @@
         <v>110190</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,7 +6364,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>93</v>
+        <v>499</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6085,13 +6373,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6100,13 +6388,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>347</v>
+        <v>502</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,7 +6415,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>93</v>
+        <v>499</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6142,7 +6430,7 @@
         <v>24</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6157,7 +6445,7 @@
         <v>24</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6460,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6193,7 +6481,7 @@
         <v>24</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6202,13 +6490,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6511,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6238,13 +6526,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6253,13 +6541,13 @@
         <v>2207</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,16 +6556,16 @@
         <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>3910</v>
+        <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>240</v>
@@ -6289,28 +6577,28 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>240</v>
       </c>
       <c r="M38" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N38" s="7">
-        <v>6898</v>
+        <v>6103</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,10 +6607,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -6349,10 +6637,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -6366,55 +6654,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>49355</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>518</v>
+        <v>15</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>519</v>
+        <v>24</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H40" s="7">
-        <v>45</v>
-      </c>
-      <c r="I40" s="7">
-        <v>47858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>521</v>
+        <v>253</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="M40" s="7">
-        <v>87</v>
-      </c>
-      <c r="N40" s="7">
-        <v>97213</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,49 +6709,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>82695</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>527</v>
+        <v>15</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>528</v>
+        <v>24</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H41" s="7">
-        <v>64</v>
-      </c>
-      <c r="I41" s="7">
-        <v>66098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>520</v>
+        <v>253</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>531</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>148792</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>532</v>
+        <v>15</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>461</v>
+        <v>24</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,49 +6758,47 @@
         <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>317423</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>533</v>
+        <v>15</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>534</v>
+        <v>24</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="H42" s="7">
-        <v>238</v>
-      </c>
-      <c r="I42" s="7">
-        <v>244633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>536</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>537</v>
+        <v>253</v>
       </c>
       <c r="M42" s="7">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>562056</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>538</v>
+        <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,49 +6807,47 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>393457</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>540</v>
+        <v>15</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>541</v>
+        <v>24</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>321</v>
+        <v>522</v>
       </c>
       <c r="H43" s="7">
-        <v>271</v>
-      </c>
-      <c r="I43" s="7">
-        <v>272025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>542</v>
+        <v>253</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>543</v>
+        <v>253</v>
       </c>
       <c r="M43" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>665481</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>544</v>
+        <v>15</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>545</v>
+        <v>24</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,49 +6856,47 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>542</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>579393</v>
+        <v>795</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>547</v>
+        <v>240</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>548</v>
+        <v>361</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="H44" s="7">
-        <v>395</v>
-      </c>
-      <c r="I44" s="7">
-        <v>406559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>550</v>
+        <v>253</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>551</v>
+        <v>253</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>552</v>
+        <v>253</v>
       </c>
       <c r="M44" s="7">
-        <v>937</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>985952</v>
+        <v>795</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>553</v>
+        <v>240</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>554</v>
+        <v>361</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>555</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,63 +6905,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>42</v>
+      </c>
+      <c r="D46" s="7">
+        <v>49355</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="H46" s="7">
+        <v>45</v>
+      </c>
+      <c r="I46" s="7">
+        <v>47858</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="M46" s="7">
+        <v>87</v>
+      </c>
+      <c r="N46" s="7">
+        <v>97213</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>75</v>
+      </c>
+      <c r="D47" s="7">
+        <v>82695</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H47" s="7">
+        <v>64</v>
+      </c>
+      <c r="I47" s="7">
+        <v>66098</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="M47" s="7">
+        <v>139</v>
+      </c>
+      <c r="N47" s="7">
+        <v>148792</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7">
+        <v>288</v>
+      </c>
+      <c r="D48" s="7">
+        <v>317423</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H48" s="7">
+        <v>238</v>
+      </c>
+      <c r="I48" s="7">
+        <v>244633</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M48" s="7">
+        <v>526</v>
+      </c>
+      <c r="N48" s="7">
+        <v>562056</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>376</v>
+      </c>
+      <c r="D49" s="7">
+        <v>393457</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49" s="7">
+        <v>271</v>
+      </c>
+      <c r="I49" s="7">
+        <v>272025</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="M49" s="7">
+        <v>647</v>
+      </c>
+      <c r="N49" s="7">
+        <v>665481</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>542</v>
+      </c>
+      <c r="D50" s="7">
+        <v>579393</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H50" s="7">
+        <v>395</v>
+      </c>
+      <c r="I50" s="7">
+        <v>406559</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M50" s="7">
+        <v>937</v>
+      </c>
+      <c r="N50" s="7">
+        <v>985952</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>295</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
